--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3201021.106628869</v>
+        <v>3196391.97770896</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847139</v>
+        <v>2310564.14322317</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7148240.972478382</v>
+        <v>7145881.054916708</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>313.2458068469386</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>386.4286243060967</v>
       </c>
     </row>
     <row r="3">
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>74.8688908180838</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.894826399414301</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>102.0192988591151</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -838,7 +838,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>51.05925556456901</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>316.7416635613937</v>
+        <v>363.0673422490528</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
@@ -944,7 +944,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>47.77614120445413</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348900007</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>66.79877150265207</v>
       </c>
       <c r="S7" t="n">
-        <v>70.99069090146993</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1139,16 +1139,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>311.7329477928435</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>268.4623107744673</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>165.6158245190445</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>100.2698474393481</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>227.8534253714107</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.698607523265</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007185</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035426</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219398</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507309</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484036</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G13" t="n">
-        <v>72.5802388872325</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380454</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497647</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943239</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="14">
@@ -1613,10 +1613,10 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
-        <v>77.77021215229136</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
@@ -1625,7 +1625,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414333</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404346</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>46.22734108560437</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035419</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049596</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422874072</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.903426900358</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281737</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>272.000346141574</v>
+        <v>265.5568836689349</v>
       </c>
       <c r="E32" t="n">
-        <v>288.971318280696</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>303.139122731397</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029519</v>
+        <v>293.0012941303128</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752493</v>
+        <v>204.8123861026102</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453488</v>
+        <v>20.92391191189581</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443501</v>
+        <v>48.81858568179594</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622526</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158224</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495919</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274705</v>
+        <v>251.2592108548314</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623488</v>
+        <v>269.5282451897097</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.93943063468</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046333</v>
+        <v>67.32610467782426</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074574</v>
+        <v>52.47323292810667</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258546</v>
+        <v>38.04694813994639</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546457</v>
+        <v>37.97339019282551</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523184</v>
+        <v>39.72284161259277</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762398</v>
+        <v>50.54167953498491</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419602</v>
+        <v>37.89393170155695</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536795</v>
+        <v>15.73364728272888</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982387</v>
+        <v>6.632145647184799</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535119</v>
+        <v>84.75808915271212</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595233</v>
+        <v>117.3320274868842</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865931</v>
+        <v>166.554570013954</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734591</v>
+        <v>147.28971790082</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942092</v>
+        <v>164.4672642215701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409218</v>
+        <v>115.7096851682827</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175981</v>
+        <v>104.8511067449591</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118667</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643889</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
-        <v>316.25865461509</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866448</v>
+        <v>312.5642884866451</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>106.374038830471</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822784</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.88713256224472</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332848</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460417</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183729</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415629</v>
+        <v>86.88909903415646</v>
       </c>
       <c r="C43" t="n">
-        <v>72.0362272844387</v>
+        <v>72.03622728443887</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627842</v>
+        <v>57.60994249627859</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915753</v>
+        <v>57.5363845491577</v>
       </c>
       <c r="F43" t="n">
-        <v>59.2858359689248</v>
+        <v>59.28583596892497</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131693</v>
+        <v>70.10467389131711</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788898</v>
+        <v>57.45692605788915</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906091</v>
+        <v>35.29664163906108</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351683</v>
+        <v>26.195140003517</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090441</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432162</v>
+        <v>136.8950218432164</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702863</v>
       </c>
       <c r="V43" t="n">
-        <v>166.852712257152</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246147</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012911</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.022958784051</v>
+        <v>182.0216171555792</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D44" t="n">
-        <v>157.8266736034372</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E44" t="n">
-        <v>302.090850164389</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150901</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G44" t="n">
-        <v>312.564288486645</v>
+        <v>312.5642884866451</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822791</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812804</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460418</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.058962518373</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415636</v>
+        <v>86.88909903415646</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443877</v>
+        <v>72.03622728443887</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627849</v>
+        <v>57.60994249627859</v>
       </c>
       <c r="E46" t="n">
-        <v>57.5363845491576</v>
+        <v>57.5363845491577</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892487</v>
+        <v>59.28583596892497</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131701</v>
+        <v>70.10467389131711</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788905</v>
+        <v>57.45692605788915</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906098</v>
+        <v>35.29664163906108</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.1951400035169</v>
+        <v>26.195140003517</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432164</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702862</v>
+        <v>186.1175643702863</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W46" t="n">
         <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>510.0917957801908</v>
+        <v>1245.131746120639</v>
       </c>
       <c r="C2" t="n">
-        <v>510.0917957801908</v>
+        <v>851.9562446235695</v>
       </c>
       <c r="D2" t="n">
-        <v>510.0917957801908</v>
+        <v>466.5151158402373</v>
       </c>
       <c r="E2" t="n">
-        <v>510.0917957801908</v>
+        <v>466.5151158402373</v>
       </c>
       <c r="F2" t="n">
-        <v>497.2377613505726</v>
+        <v>453.6610814106191</v>
       </c>
       <c r="G2" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="K2" t="n">
-        <v>284.6640550363798</v>
+        <v>234.3556359163624</v>
       </c>
       <c r="L2" t="n">
-        <v>284.6640550363798</v>
+        <v>234.3556359163624</v>
       </c>
       <c r="M2" t="n">
-        <v>810.4869444322351</v>
+        <v>735.5224189118132</v>
       </c>
       <c r="N2" t="n">
-        <v>1336.30983382809</v>
+        <v>1236.689201907264</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.349434720419</v>
+        <v>1676.728802799593</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137463</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078513</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="T2" t="n">
-        <v>1696.52985563793</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="U2" t="n">
-        <v>1696.52985563793</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="V2" t="n">
-        <v>1696.52985563793</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.52985563793</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="X2" t="n">
-        <v>1307.077250570987</v>
+        <v>1635.463689864171</v>
       </c>
       <c r="Y2" t="n">
-        <v>910.5865414915877</v>
+        <v>1245.131746120639</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>839.8643090386532</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E3" t="n">
-        <v>424.6670329695301</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526619</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512723</v>
+        <v>89.8855798867107</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="K3" t="n">
-        <v>362.2298845992652</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>362.2298845992652</v>
+        <v>843.803557859162</v>
       </c>
       <c r="M3" t="n">
-        <v>442.2072945938163</v>
+        <v>843.803557859162</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896716</v>
+        <v>883.7630516643756</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580653</v>
+        <v>1384.929834659826</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.17183529705</v>
+        <v>1790.551203376224</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750005</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="S3" t="n">
-        <v>2024.994741509516</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="T3" t="n">
-        <v>2024.994741509516</v>
+        <v>2023.0023288711</v>
       </c>
       <c r="U3" t="n">
-        <v>1814.931598188158</v>
+        <v>1812.939185549742</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.391596559225</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1360.281938054096</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>991.6606434796146</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>656.6437036260486</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="C4" t="n">
-        <v>656.6437036260486</v>
+        <v>1921.866498103725</v>
       </c>
       <c r="D4" t="n">
-        <v>656.6437036260486</v>
+        <v>1766.23338500624</v>
       </c>
       <c r="E4" t="n">
-        <v>656.6437036260486</v>
+        <v>1610.674572865443</v>
       </c>
       <c r="F4" t="n">
-        <v>499.3177688390215</v>
+        <v>1610.674572865443</v>
       </c>
       <c r="G4" t="n">
-        <v>331.063714938467</v>
+        <v>1442.420518964888</v>
       </c>
       <c r="H4" t="n">
-        <v>175.5851638999609</v>
+        <v>1286.941967926382</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703882</v>
+        <v>1153.84754256346</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703882</v>
+        <v>1123.469272389562</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>1205.304313499504</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>1369.431953373304</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>1555.723531711568</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>1738.913165742777</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>1901.617932784485</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>2021.494098561064</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="T4" t="n">
-        <v>708.2187092468254</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="U4" t="n">
-        <v>708.2187092468254</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="V4" t="n">
-        <v>708.2187092468254</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="W4" t="n">
-        <v>708.2187092468254</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="X4" t="n">
-        <v>656.6437036260486</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="Y4" t="n">
-        <v>656.6437036260486</v>
+        <v>2024.916294931114</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1159.578817979857</v>
+        <v>818.9388913941279</v>
       </c>
       <c r="C5" t="n">
-        <v>1159.578817979857</v>
+        <v>818.9388913941279</v>
       </c>
       <c r="D5" t="n">
-        <v>774.1376891965251</v>
+        <v>818.9388913941279</v>
       </c>
       <c r="E5" t="n">
-        <v>371.5541643130696</v>
+        <v>416.3553665106725</v>
       </c>
       <c r="F5" t="n">
-        <v>51.61309000863159</v>
+        <v>49.62067737021506</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="K5" t="n">
-        <v>284.6640550363798</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="L5" t="n">
-        <v>284.6640550363798</v>
+        <v>533.8186176171512</v>
       </c>
       <c r="M5" t="n">
-        <v>810.4869444322351</v>
+        <v>735.5224189118132</v>
       </c>
       <c r="N5" t="n">
-        <v>1336.30983382809</v>
+        <v>1236.689201907264</v>
       </c>
       <c r="O5" t="n">
-        <v>1776.349434720419</v>
+        <v>1676.728802799593</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137463</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.030458078513</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="T5" t="n">
-        <v>1920.030458078513</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="U5" t="n">
-        <v>1920.030458078513</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="V5" t="n">
-        <v>1920.030458078513</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="W5" t="n">
-        <v>1549.031423046801</v>
+        <v>1615.924346184924</v>
       </c>
       <c r="X5" t="n">
-        <v>1159.578817979857</v>
+        <v>1615.924346184924</v>
       </c>
       <c r="Y5" t="n">
-        <v>1159.578817979857</v>
+        <v>1219.433637105525</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>505.9467430955096</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>355.2925126556019</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>225.2035452770822</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695301</v>
+        <v>88.7570543879699</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526619</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512723</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703882</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K6" t="n">
-        <v>72.80477957093586</v>
+        <v>473.3524541805761</v>
       </c>
       <c r="L6" t="n">
-        <v>556.3708654692491</v>
+        <v>956.9185400788894</v>
       </c>
       <c r="M6" t="n">
-        <v>1082.193754865104</v>
+        <v>1289.384420380773</v>
       </c>
       <c r="N6" t="n">
-        <v>1608.01664426096</v>
+        <v>1289.384420380773</v>
       </c>
       <c r="O6" t="n">
-        <v>2124.536926851941</v>
+        <v>1790.551203376224</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851941</v>
+        <v>1790.551203376224</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851941</v>
+        <v>2000.999251829179</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851941</v>
+        <v>1866.068574729048</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927956</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606598</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977665</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1026.364372110952</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>837.0572944609637</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>657.743077536471</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>687.0219737999466</v>
+        <v>368.0293786196601</v>
       </c>
       <c r="C7" t="n">
-        <v>687.0219737999466</v>
+        <v>197.8242606856493</v>
       </c>
       <c r="D7" t="n">
-        <v>687.0219737999466</v>
+        <v>197.8242606856493</v>
       </c>
       <c r="E7" t="n">
-        <v>687.0219737999466</v>
+        <v>197.8242606856493</v>
       </c>
       <c r="F7" t="n">
-        <v>529.6960390129195</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="G7" t="n">
-        <v>361.441985112365</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="H7" t="n">
-        <v>205.963434073859</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="I7" t="n">
-        <v>72.86900871093687</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>874.4718418718392</v>
       </c>
       <c r="S7" t="n">
-        <v>872.2299924912479</v>
+        <v>874.4718418718392</v>
       </c>
       <c r="T7" t="n">
-        <v>872.2299924912479</v>
+        <v>874.4718418718392</v>
       </c>
       <c r="U7" t="n">
-        <v>872.2299924912479</v>
+        <v>874.4718418718392</v>
       </c>
       <c r="V7" t="n">
-        <v>872.2299924912479</v>
+        <v>874.4718418718392</v>
       </c>
       <c r="W7" t="n">
-        <v>872.2299924912479</v>
+        <v>591.1414398030167</v>
       </c>
       <c r="X7" t="n">
-        <v>872.2299924912479</v>
+        <v>591.1414398030167</v>
       </c>
       <c r="Y7" t="n">
-        <v>872.2299924912479</v>
+        <v>368.0293786196601</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1162.787751730473</v>
+        <v>1927.160845651305</v>
       </c>
       <c r="C8" t="n">
-        <v>769.6122502334035</v>
+        <v>1533.985344154236</v>
       </c>
       <c r="D8" t="n">
-        <v>384.1711214500713</v>
+        <v>1148.544215370903</v>
       </c>
       <c r="E8" t="n">
-        <v>69.28935600275456</v>
+        <v>1148.544215370903</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>731.6497769008812</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>318.4870213888843</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>144.6268723438257</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>503.6092283712875</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1905.389306738351</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1563.28249744187</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.28249744187</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>1563.28249744187</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>1563.28249744187</v>
+        <v>2327.655591362702</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>643.9940382195844</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1229.492043226187</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.1512011330396</v>
+        <v>847.4773184619364</v>
       </c>
       <c r="C10" t="n">
-        <v>202.9460831990289</v>
+        <v>847.4773184619364</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -5002,10 +5002,10 @@
         <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>781.4712810076976</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>558.3592198243409</v>
+        <v>847.4773184619364</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1767.469967186865</v>
+        <v>1827.815439560371</v>
       </c>
       <c r="C11" t="n">
-        <v>1469.235146976984</v>
+        <v>1529.58061935049</v>
       </c>
       <c r="D11" t="n">
         <v>1239.080171854346</v>
       </c>
       <c r="E11" t="n">
-        <v>931.4373282580789</v>
+        <v>931.4373282580791</v>
       </c>
       <c r="F11" t="n">
-        <v>609.4835710752451</v>
+        <v>609.4835710752452</v>
       </c>
       <c r="G11" t="n">
-        <v>291.2614968504366</v>
+        <v>291.2614968504367</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U11" t="n">
-        <v>2945.144336927563</v>
+        <v>2873.571463155802</v>
       </c>
       <c r="V11" t="n">
-        <v>2945.144336927563</v>
+        <v>2729.431455556545</v>
       </c>
       <c r="W11" t="n">
-        <v>2669.085983183038</v>
+        <v>2729.431455556545</v>
       </c>
       <c r="X11" t="n">
-        <v>2374.574059403284</v>
+        <v>2434.91953177679</v>
       </c>
       <c r="Y11" t="n">
-        <v>2073.024031611073</v>
+        <v>2133.36950398458</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2234.856203156066</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082782</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979808</v>
+        <v>357.1274984979813</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
         <v>234.1241141445332</v>
@@ -5191,7 +5191,7 @@
         <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798494</v>
+        <v>100.2728717798495</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,19 +5200,19 @@
         <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1320.171044252416</v>
+        <v>1505.861682377537</v>
       </c>
       <c r="C14" t="n">
-        <v>1021.936224042535</v>
+        <v>1207.626862167656</v>
       </c>
       <c r="D14" t="n">
-        <v>731.4357765463911</v>
+        <v>917.1264146715121</v>
       </c>
       <c r="E14" t="n">
-        <v>731.4357765463911</v>
+        <v>609.483571075245</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955918</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707833</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244623</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2905.82359028062</v>
+        <v>2977.396464052381</v>
       </c>
       <c r="U14" t="n">
-        <v>2745.011542002408</v>
+        <v>2930.702180127528</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.845413993115</v>
+        <v>2683.536052118235</v>
       </c>
       <c r="W14" t="n">
-        <v>2221.78706024859</v>
+        <v>2407.477698373711</v>
       </c>
       <c r="X14" t="n">
-        <v>1927.275136468835</v>
+        <v>2112.965774593956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1625.725108676625</v>
+        <v>1811.415746801746</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>689.8907773307967</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669550998</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082774</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979806</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443717</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F16" t="n">
         <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311667</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,16 +5434,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.283149675766</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791389</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469763</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5455,13 +5455,13 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852096</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.523084255381</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592127</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
         <v>68.7795079292422</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5671,16 +5671,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229888</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128483</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N19" t="n">
         <v>812.1990332879423</v>
@@ -5735,34 +5735,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924085</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5792,7 +5792,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>270.9691711012525</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L22" t="n">
-        <v>435.0968109750523</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M22" t="n">
-        <v>621.3883893133163</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1286.571845448837</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1286.571845448837</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O24" t="n">
-        <v>1803.092128039818</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2208.713496756216</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>804.5780233445255</v>
+        <v>806.619390679759</v>
       </c>
       <c r="O25" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218602</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>247.9841471388008</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958359</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118092</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2546.304425485127</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
         <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6251,7 +6251,7 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
         <v>3468.110152452356</v>
@@ -6260,13 +6260,13 @@
         <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6382,16 +6382,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
@@ -6470,16 +6470,16 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6628,7 +6628,7 @@
         <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634093</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144927</v>
+        <v>890.2201666674341</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423744</v>
+        <v>590.5275805474765</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855444</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267667</v>
+        <v>87.68547930209947</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J32" t="n">
-        <v>310.9628692786696</v>
+        <v>235.8210363935784</v>
       </c>
       <c r="K32" t="n">
-        <v>778.4357329465172</v>
+        <v>709.6729279093386</v>
       </c>
       <c r="L32" t="n">
-        <v>1271.756024665046</v>
+        <v>1202.993219627867</v>
       </c>
       <c r="M32" t="n">
-        <v>1926.247432350012</v>
+        <v>1748.994119672448</v>
       </c>
       <c r="N32" t="n">
-        <v>2454.058715987474</v>
+        <v>2276.80540330991</v>
       </c>
       <c r="O32" t="n">
-        <v>2894.098316879803</v>
+        <v>2716.845004202239</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011325</v>
+        <v>3065.03249633376</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152274</v>
+        <v>3249.878056474709</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152274</v>
+        <v>3327.510737231447</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491228</v>
+        <v>3278.199034522563</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448549</v>
+        <v>3171.900284432044</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281052</v>
+        <v>3033.349407216707</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382474</v>
+        <v>2808.44445027029</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748665</v>
+        <v>2554.647267588643</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871764</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.10765814243</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155367</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027729</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633126</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>1610.742078551577</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1610.742078551577</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590208</v>
+        <v>341.6872565554796</v>
       </c>
       <c r="C34" t="n">
-        <v>329.727691322914</v>
+        <v>288.6839909715334</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233327</v>
+        <v>250.2527302241128</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804392</v>
+        <v>211.89577043338</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913161</v>
+        <v>171.7716879964176</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886656</v>
+        <v>120.7194864459278</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806361</v>
+        <v>82.4427877574864</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259937</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="K34" t="n">
-        <v>337.5849411763212</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>501.712581050121</v>
+        <v>312.5128957283706</v>
       </c>
       <c r="M34" t="n">
-        <v>796.4946670287707</v>
+        <v>613.674009554933</v>
       </c>
       <c r="N34" t="n">
-        <v>979.6843010599798</v>
+        <v>911.7331790744406</v>
       </c>
       <c r="O34" t="n">
-        <v>1250.879575742073</v>
+        <v>1088.287753884381</v>
       </c>
       <c r="P34" t="n">
-        <v>1370.755741518652</v>
+        <v>1323.033455149258</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392297</v>
+        <v>1326.455651519309</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422778</v>
+        <v>1319.756514501951</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003231</v>
+        <v>1234.142283034565</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569369</v>
+        <v>1115.625083552864</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209174</v>
+        <v>947.3881441448292</v>
       </c>
       <c r="V34" t="n">
-        <v>872.197091427902</v>
+        <v>798.6106513157181</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569835</v>
+        <v>632.4821015969604</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378707</v>
+        <v>515.6036317300081</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.754219152418</v>
+        <v>409.6934228967162</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
@@ -6926,10 +6926,10 @@
         <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6971,13 +6971,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2009.716291882317</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7105,40 +7105,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>378.9738643893075</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>862.5399502876207</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M39" t="n">
-        <v>1490.311599914302</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N39" t="n">
-        <v>2146.089571124861</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229973</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222416</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960414</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343054</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879432</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1627.066081816727</v>
+        <v>1693.618740970509</v>
       </c>
       <c r="C41" t="n">
-        <v>1331.331832309791</v>
+        <v>1397.884491463572</v>
       </c>
       <c r="D41" t="n">
-        <v>1043.331955516592</v>
+        <v>1109.884614670373</v>
       </c>
       <c r="E41" t="n">
-        <v>738.1896826232696</v>
+        <v>804.742341777051</v>
       </c>
       <c r="F41" t="n">
-        <v>418.7364961433809</v>
+        <v>485.2891552971619</v>
       </c>
       <c r="G41" t="n">
-        <v>103.0149926215174</v>
+        <v>169.5676517752983</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215174</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7439,22 +7439,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>3039.403726051994</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>3039.403726051994</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2794.738168745645</v>
+        <v>2861.290827899428</v>
       </c>
       <c r="W41" t="n">
-        <v>2521.180385704066</v>
+        <v>2587.733044857848</v>
       </c>
       <c r="X41" t="n">
-        <v>2229.169032627256</v>
+        <v>2295.721691781038</v>
       </c>
       <c r="Y41" t="n">
-        <v>1930.119575537991</v>
+        <v>1996.672234691772</v>
       </c>
     </row>
     <row r="42">
@@ -7497,16 +7497,16 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344855</v>
+        <v>475.5803720344867</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906081</v>
+        <v>402.8165060906091</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832561</v>
+        <v>344.624644983257</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325919</v>
+        <v>286.5070848325926</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356982</v>
+        <v>226.6224020356987</v>
       </c>
       <c r="G43" t="n">
-        <v>155.809600125277</v>
+        <v>155.8096001252774</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690433</v>
+        <v>97.7723010769045</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822077</v>
+        <v>127.8475561822075</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676792</v>
+        <v>305.1847683676789</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170086</v>
+        <v>564.8145793170081</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308022</v>
+        <v>786.9927227160351</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822771</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940008</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792117</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237697</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860408</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.35960103309</v>
+        <v>1506.359601033093</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423492</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557604</v>
+        <v>825.6570181557621</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288769</v>
+        <v>689.0179479288784</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356535</v>
+        <v>563.3471387356549</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1498.487087451243</v>
+        <v>1812.812015342702</v>
       </c>
       <c r="C44" t="n">
-        <v>1202.752837944307</v>
+        <v>1517.077765835766</v>
       </c>
       <c r="D44" t="n">
-        <v>1043.331955516592</v>
+        <v>1229.077889042567</v>
       </c>
       <c r="E44" t="n">
-        <v>738.1896826232702</v>
+        <v>923.9356161492444</v>
       </c>
       <c r="F44" t="n">
-        <v>418.736496143381</v>
+        <v>604.4824296693554</v>
       </c>
       <c r="G44" t="n">
-        <v>103.0149926215175</v>
+        <v>288.7609261474918</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215175</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3036.88408213696</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.82473168651</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2910.82473168651</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2666.159174380162</v>
+        <v>2861.290827899428</v>
       </c>
       <c r="W44" t="n">
-        <v>2392.601391338583</v>
+        <v>2587.733044857848</v>
       </c>
       <c r="X44" t="n">
-        <v>2100.590038261773</v>
+        <v>2295.721691781038</v>
       </c>
       <c r="Y44" t="n">
-        <v>1801.540581172507</v>
+        <v>1996.672234691772</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M45" t="n">
-        <v>802.5350401618138</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.580372034486</v>
+        <v>475.5803720344867</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906085</v>
+        <v>402.8165060906091</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832565</v>
+        <v>344.624644983257</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325926</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356987</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252772</v>
+        <v>155.8096001252774</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7723010769044</v>
+        <v>97.7723010769045</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822076</v>
+        <v>127.8475561822075</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676791</v>
+        <v>245.5691623529124</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170083</v>
+        <v>505.1989733022417</v>
       </c>
       <c r="M46" t="n">
-        <v>846.608328730802</v>
+        <v>786.9927227160351</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P46" t="n">
-        <v>1598.885408806887</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237699</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.359601033093</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191459</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557611</v>
+        <v>825.6570181557621</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288774</v>
+        <v>689.0179479288784</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356541</v>
+        <v>563.3471387356549</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>241.5670330686443</v>
+        <v>338.8738678436213</v>
       </c>
       <c r="L2" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107125</v>
+        <v>655.9541253305058</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507693</v>
+        <v>655.3475650705627</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8061,16 +8061,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>173.1723846700706</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671518</v>
+        <v>125.735237909938</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216675</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8216,16 +8216,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>387.6779147947333</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107125</v>
+        <v>353.4662650266789</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507693</v>
+        <v>655.3475650705627</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>120.2171788019162</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622971</v>
+        <v>428.2112435663661</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671518</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216675</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>215.9767088941462</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8462,7 +8462,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>447.7345042973469</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,22 +8532,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>301.5486891608486</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>390.0096609786947</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8769,25 +8769,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>238.0573041899393</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9009,22 +9009,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>624.8237719316268</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>301.8549375253374</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9717,7 +9717,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9729,13 +9729,13 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>264.4640783312027</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10434,13 +10434,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,7 +10671,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10680,10 +10680,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>461.5665676450056</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10829,7 +10829,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -10899,13 +10899,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>295.3946671166309</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10914,13 +10914,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11145,7 +11145,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11154,10 +11154,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>117.494503443537</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
@@ -11382,7 +11382,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
@@ -11391,7 +11391,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>59.74201764977181</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.9624712641434</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404353</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292004</v>
+        <v>101.9958592059353</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>240.9640074587141</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>112.9765867098265</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>118.0013416284715</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822801</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812796</v>
+        <v>68.38158003812813</v>
       </c>
       <c r="T41" t="n">
-        <v>58.9116243837008</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995154</v>
+        <v>156.7283627995156</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>118.0013416284719</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>127.2932044218299</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822801</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812813</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>156.7283627995156</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>619934.9663718452</v>
+        <v>618731.8711443247</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>619934.9663718452</v>
+        <v>618731.8711443247</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>622846.8148862502</v>
+        <v>622846.8148862503</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>628680.1418673685</v>
+        <v>628680.1418673686</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>596305.424239088</v>
+        <v>596305.4242390877</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>685262.276754756</v>
+        <v>685262.2767547559</v>
       </c>
       <c r="C2" t="n">
-        <v>685262.2767547556</v>
+        <v>685262.2767547559</v>
       </c>
       <c r="D2" t="n">
-        <v>685262.2767547556</v>
+        <v>685262.2767547558</v>
       </c>
       <c r="E2" t="n">
-        <v>644009.2661963055</v>
+        <v>644009.2661963061</v>
       </c>
       <c r="F2" t="n">
-        <v>644009.2661963066</v>
+        <v>644009.2661963056</v>
       </c>
       <c r="G2" t="n">
         <v>685262.2767547562</v>
       </c>
       <c r="H2" t="n">
-        <v>685262.276754756</v>
+        <v>685262.2767547561</v>
       </c>
       <c r="I2" t="n">
-        <v>685262.276754756</v>
+        <v>685262.2767547562</v>
       </c>
       <c r="J2" t="n">
-        <v>685262.2767547558</v>
+        <v>685262.2767547559</v>
       </c>
       <c r="K2" t="n">
-        <v>685262.2767547558</v>
+        <v>685262.2767547559</v>
       </c>
       <c r="L2" t="n">
-        <v>685262.2767547552</v>
+        <v>685262.2767547567</v>
       </c>
       <c r="M2" t="n">
         <v>685262.2767547562</v>
       </c>
       <c r="N2" t="n">
-        <v>685262.276754756</v>
+        <v>685262.2767547558</v>
       </c>
       <c r="O2" t="n">
+        <v>646817.2995711735</v>
+      </c>
+      <c r="P2" t="n">
         <v>646817.2995711736</v>
-      </c>
-      <c r="P2" t="n">
-        <v>646817.2995711734</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343507</v>
+        <v>169649.00587655</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602654</v>
+        <v>26460.41160941811</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377121</v>
+        <v>130452.9311377122</v>
       </c>
       <c r="F3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469666</v>
+        <v>215329.5897923934</v>
       </c>
       <c r="K3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670112</v>
+        <v>46725.80335481239</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436844</v>
+        <v>43782.97194555663</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015689</v>
+        <v>18983.55983015674</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213463.5449614852</v>
+        <v>218972.6240101878</v>
       </c>
       <c r="C4" t="n">
-        <v>213463.5449614852</v>
+        <v>218972.6240101878</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
       </c>
       <c r="E4" t="n">
-        <v>148856.2633404648</v>
+        <v>148856.2633404649</v>
       </c>
       <c r="F4" t="n">
         <v>148856.2633404649</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173888.2217936687</v>
+        <v>173754.827184614</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26454,10 +26454,10 @@
         <v>173460.5839839468</v>
       </c>
       <c r="O4" t="n">
-        <v>150530.8792394563</v>
+        <v>150530.8792394561</v>
       </c>
       <c r="P4" t="n">
-        <v>150530.8792394562</v>
+        <v>150530.8792394561</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295293</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295293</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,7 +26479,7 @@
         <v>55112.2895089091</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.28950890911</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446767</v>
+        <v>60332.67530588341</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.40778255071</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>227882.8733707705</v>
+        <v>232234.3191850652</v>
       </c>
       <c r="C6" t="n">
-        <v>405878.1705051209</v>
+        <v>401883.3250616151</v>
       </c>
       <c r="D6" t="n">
-        <v>396822.7630336429</v>
+        <v>389086.4738102513</v>
       </c>
       <c r="E6" t="n">
-        <v>309587.7822092195</v>
+        <v>309479.2216551187</v>
       </c>
       <c r="F6" t="n">
-        <v>440040.7133469326</v>
+        <v>439932.1527928305</v>
       </c>
       <c r="G6" t="n">
-        <v>424536.9675822755</v>
+        <v>424536.9675822753</v>
       </c>
       <c r="H6" t="n">
-        <v>453631.9234552896</v>
+        <v>453631.9234552897</v>
       </c>
       <c r="I6" t="n">
-        <v>453631.9234552896</v>
+        <v>453631.9234552898</v>
       </c>
       <c r="J6" t="n">
-        <v>225546.2801055398</v>
+        <v>232062.5652601132</v>
       </c>
       <c r="K6" t="n">
-        <v>447392.1550525064</v>
+        <v>447392.1550525065</v>
       </c>
       <c r="L6" t="n">
-        <v>408497.8081199178</v>
+        <v>404448.9709094468</v>
       </c>
       <c r="M6" t="n">
-        <v>410900.6465209214</v>
+        <v>409848.9515097332</v>
       </c>
       <c r="N6" t="n">
-        <v>453631.9234552896</v>
+        <v>453631.9234552893</v>
       </c>
       <c r="O6" t="n">
-        <v>421982.4527190098</v>
+        <v>421881.2817264215</v>
       </c>
       <c r="P6" t="n">
-        <v>440966.0125491665</v>
+        <v>440864.8415565784</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="P2" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880684</v>
+        <v>831.8776843078618</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304849</v>
+        <v>57.62257963304852</v>
       </c>
       <c r="K2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.9637917208764</v>
+        <v>58.40725419351548</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165939</v>
+        <v>14.33013548902038</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769611</v>
+        <v>23.72944978769593</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630989</v>
+        <v>85.18305253651647</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559194</v>
+        <v>646.8007142757127</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455247</v>
+        <v>129.6883820257312</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304849</v>
+        <v>57.62257963304852</v>
       </c>
       <c r="P2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630989</v>
+        <v>85.18305253651647</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>95.78532110993825</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>6.097177682508175</v>
       </c>
     </row>
     <row r="3">
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>58.71247951104604</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>173.3191472836663</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>66.48376789555562</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>180.6802634302777</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>95.9838305239283</v>
+        <v>49.65815183626916</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>75.41134685124538</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019408054</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27786,16 +27786,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>55.86320797109673</v>
       </c>
       <c r="S7" t="n">
-        <v>129.7972320778062</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27834,13 +27834,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>86.82474184177738</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>52.37990915470692</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,19 +28020,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>66.12369447580221</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>120.611093132175</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28743,19 +28743,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>35.71049010668771</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
-        <v>35.71049010668767</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28980,14 +28980,14 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.636002634528666</v>
+      </c>
+      <c r="L22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>28.01250026485259</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,22 +29217,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>28.01250026485259</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>5.636002634528467</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,7 +29296,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
         <v>93.99127447431646</v>
@@ -29308,16 +29308,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>30.27223765901221</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29542,19 +29542,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>30.27223765901266</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,40 +29746,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J32" t="n">
-        <v>98.7580494816122</v>
+        <v>24.86974620214278</v>
       </c>
       <c r="K32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539249</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539249</v>
+        <v>13.98970481639662</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.996862124842</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="35">
@@ -30177,19 +30177,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5.636002634529465</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.6129845773342</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>130.3599693155844</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668857</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30414,10 +30414,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R41" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023197</v>
+        <v>36.24905561693231</v>
       </c>
       <c r="N43" t="n">
-        <v>36.2490556169285</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="C44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="D44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="E44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="F44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="G44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="H44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="I44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="T44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="U44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="V44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="W44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="X44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="C46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="D46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="E46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="F46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="G46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="H46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="I46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="J46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="K46" t="n">
-        <v>96.4668394702319</v>
+        <v>36.24905561693228</v>
       </c>
       <c r="L46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="M46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="N46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="O46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="P46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.24905561693076</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="R46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="S46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="T46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="U46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="V46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="W46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="X46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.4668394702318</v>
       </c>
     </row>
   </sheetData>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>98.50862988940689</v>
+        <v>195.815464664384</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34781,16 +34781,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>80.78526262075866</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>531.1342317129852</v>
+        <v>40.3631250557713</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34936,16 +34936,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>244.6195116154959</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129852</v>
+        <v>203.7412134289516</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129852</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>30.62024346858288</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1342317129852</v>
+        <v>335.8241215170542</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129852</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>98.29687095180005</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35182,7 +35182,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>298.6160129595628</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N9" t="n">
-        <v>216.1765763066819</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>302.92629615938</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>147.0691510340253</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215734</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.4480384844689</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>539.4516590774601</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215741</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35820,10 +35820,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,10 +36048,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
-        <v>220.7505244816465</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>216.4828246711707</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>110.6741579516626</v>
+        <v>88.29766032133864</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36449,13 +36449,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.4759251752887</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,10 +36525,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716073</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.3831193851016</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36604,16 +36604,16 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>474.7566830047985</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36838,19 +36838,19 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>474.756683004799</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>244.8689312077012</v>
+        <v>170.9806279282318</v>
       </c>
       <c r="K32" t="n">
-        <v>472.1948117857046</v>
+        <v>478.6382742583436</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>661.1024320050165</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>78.41684924923072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176587</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2480290407349</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067169</v>
+        <v>304.203145279356</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>301.0698682015228</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910038</v>
+        <v>178.3379543534755</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>237.1168699645222</v>
       </c>
       <c r="Q34" t="n">
-        <v>62.45362613499448</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,7 +37391,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,10 +37400,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>374.483202825691</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,19 +37473,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>249.385018246236</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644681948</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37564,7 +37564,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
-        <v>9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>205.7977317832976</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37634,13 +37634,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634529496</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37710,10 +37710,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37874,10 +37874,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807291</v>
+        <v>66.39235199807274</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
-        <v>284.640150923024</v>
+        <v>224.4223670697243</v>
       </c>
       <c r="N43" t="n">
-        <v>221.2890899918873</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038446</v>
+        <v>99.92360348038429</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
@@ -38111,7 +38111,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807283</v>
+        <v>66.39235199807274</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570419</v>
+        <v>118.9107133037423</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230238</v>
+        <v>284.6401509230237</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.70581962708324</v>
+        <v>99.92360348038429</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
